--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.3480054502044986, 0.33064720809674897, 0.32158342588237016, 0.30547327574676053, 0.49597077002364137, 0.3068871968614452, 0.32181604176203593, 0.31251106335285406, 0.28136265374449676, 0.2682394692882572, 0.25560314222333846, 0.2763811920042502, 0.27778244256036594, 0.2961320739041243, 0.2692066585333844, 0.2411917911228609, 0.2648718317788912, 0.24677964485864565, 0.2429611781622238]</t>
+    <t>[1.0, 0.31967756971198075, 0.3038434045935043, 0.2941671851070525, 0.2727377628275661, 0.47359109975194336, 0.27698584982002694, 0.294941860423538, 0.2825140517732761, 0.2467495898746261, 0.23526531121076355, 0.22260491191002388, 0.24758520241450924, 0.24618261009451964, 0.2623274664137683, 0.2393553527768477, 0.20773651918313554, 0.23385849195393235, 0.21116232515339256, 0.2057272454195783]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.3680584374353505, 0.32727124722373074, 0.3483554720025708, 0.30586033652324085, 0.3673091275611042, 0.2967968043276082, 0.29835803407416867, 0.2940122573456047, 0.2623010108312097, 0.27204899298934987, 0.23953549990637346, 0.24977288530707942, 0.2323043648535194, 0.26297962280873716, 0.27115083310700094, 0.23289201195706577, 0.24291264757132874, 0.2344542275761192, 0.22407666843351]</t>
+    <t>[0.9999999999999999, 0.3457942028043245, 0.30187447422524244, 0.32874727556479366, 0.28005497474281904, 0.34290257139185665, 0.2710303012689809, 0.2722019259068867, 0.2692478390950436, 0.23395127770014754, 0.24595626206923216, 0.20977900467558047, 0.22395637177089922, 0.20446574399531, 0.23136328413254656, 0.24503618823815235, 0.2025509470082138, 0.21427410187973012, 0.20758283919148882, 0.19333797985146114]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.08293784676642171, -0.04660052523563201, -0.07166481578744287, -0.10081351758059852, 0.29402791625730745, -0.03557854443984496, 0.06351794795530778, 0.009373511642049645, -0.011595774507239148, -0.03270448416267313, -0.027107058561082153, 0.01510221176630004, 0.031043990590918297, 0.07529247926588689, 0.01917525726430407, 0.008403111778281052, -0.010492098417025935, -0.016693309566886343, 0.018340490687777423]</t>
+    <t>[0.9999999999999999, -0.09021303804169639, -0.05069690986088107, -0.07357237745612387, -0.11834949268713568, 0.28775386407957737, -0.04668057576844395, 0.05852392703767862, 0.0036647847892249106, -0.023474008545813524, -0.038940786472992366, -0.03772287650368242, 0.016993802621373847, 0.021073064777259242, 0.06962543253462977, 0.012218773106454854, -0.003873741031019354, -0.010859006176298293, -0.028785102078740535, 0.004470907994055973]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.08532043899352214, -0.04822336386023152, -0.07287441018206303, -0.10196945887787728, 0.2931208376821743, -0.036762887653312586, 0.06282882345415525, 0.008511868224423187, -0.011874132369351297, -0.033110261560027596, -0.02772105502904906, 0.014618495869907608, 0.030536691560457987, 0.07516273138111351, 0.0189307496220644, 0.008110806512505913, -0.010812055528149287, -0.016995288473673233, 0.018297014454150416]</t>
-  </si>
-  <si>
-    <t>[1.0, -0.06458386430439762, -0.03206727954824389, -0.047871776893311575, -0.05899663406525309, 0.22875608016426738, -0.027912955206742883, 0.04287173049812892, 0.005816736175615588, -0.005648001620026857, -0.017596526789211725, -0.013034383481429568, 0.010881166865707916, 0.017659789655651893, 0.0678014299122982, 0.022373492712841104, 0.0032321186772899793, 0.005348676687547349, 0.005978907091104203, 0.017414180324077603]</t>
+    <t>[1.0, -0.04537073463150119, -0.014809631493741164, -0.039996503971106684, -0.08729354845500342, 0.30487741041294214, -0.02139768261892874, 0.07460534623267191, 0.022457070909931, -0.013671819562525198, -0.027103267391320216, -0.027760763788982637, 0.026844212946170516, 0.03078091553296756, 0.06966426059382526, 0.019116851364118073, 0.0009243541293403281, -0.004575229639319514, -0.022159726163030472, 0.009127335732338376]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.0676488815431104, -0.031416736919497305, -0.047700995538358874, -0.06530600588951523, 0.1998446210289016, -0.03509617009270588, 0.03344754199212242, -0.005953713292294641, -0.021100965572721096, -0.02579211762132092, -0.018559131795802725, 0.009000413341306314, 0.003330477239898005, 0.055756450823325344, 0.016599528182636426, -0.006120883524487295, 0.006796309748721854, -0.002617752846073729, 0.0024843077130455374]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.340396998150755E-05</v>
+        <v>-5.2956794893893E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7922920573705716</v>
+        <v>0.7929965008397935</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001619535813305768</v>
+        <v>0.001978262929895643</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1.044181705040448</v>
+        <v>1.067583974099555</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.009952321236906262</v>
+        <v>-0.01163059438434978</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.76088955526034</v>
+        <v>0.7517595727673099</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001004995758678609</v>
+        <v>0.001207455341984045</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01049344062183835</v>
+        <v>0.01256828842261183</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.755911786296327</v>
+        <v>0.7462214371342081</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.001176114966191802</v>
+        <v>0.001444694635368234</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0002681808766328878</v>
+        <v>0.0003351416656164028</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.614392707085153E-05</v>
+        <v>4.413315177652508E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.2000228872748824</v>
+        <v>0.1999999745631566</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.780006304962194</v>
+        <v>0.7800000285684567</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0002276391575250181</v>
+        <v>-0.0003438700948161704</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.614664922433226E-05</v>
+        <v>4.413636892290445E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1999999762063653</v>
+        <v>0.1000000889766707</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7749999255772266</v>
+        <v>0.8549999255094036</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.009999982057784098</v>
+        <v>0.04999986672740196</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001584656497128729</v>
+        <v>-0.0003176544666566077</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.240284982949011E-05</v>
+        <v>3.956687539925694E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1999998591611148</v>
+        <v>0.199983684524659</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7749994357699902</v>
+        <v>0.7750186527439975</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.009999811970911045</v>
+        <v>0.009999222019920005</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7918237881870336</v>
+        <v>0.7604946193121846</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.31967756971198075, 0.3038434045935043, 0.2941671851070525, 0.2727377628275661, 0.47359109975194336, 0.27698584982002694, 0.294941860423538, 0.2825140517732761, 0.2467495898746261, 0.23526531121076355, 0.22260491191002388, 0.24758520241450924, 0.24618261009451964, 0.2623274664137683, 0.2393553527768477, 0.20773651918313554, 0.23385849195393235, 0.21116232515339256, 0.2057272454195783]</t>
+    <t>[0.9999999999999999, 0.025119562714767167, -0.04043037783277752, -0.11377522093295238, -0.1263982703342901, 0.05729696109786486, 0.011154612049982467, 0.07035491216299222, 0.03186409641904842, -0.012453649374926748, -0.06997161244419883, -0.04382851311469033, 0.0010308417392698084, 0.02886426710454328, 0.07250179301358817, 0.03522460735072164, -0.007025144569549078, -0.05583638288337831, -0.05284521720960309, 0.0011761930144414331]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.3457942028043245, 0.30187447422524244, 0.32874727556479366, 0.28005497474281904, 0.34290257139185665, 0.2710303012689809, 0.2722019259068867, 0.2692478390950436, 0.23395127770014754, 0.24595626206923216, 0.20977900467558047, 0.22395637177089922, 0.20446574399531, 0.23136328413254656, 0.24503618823815235, 0.2025509470082138, 0.21427410187973012, 0.20758283919148882, 0.19333797985146114]</t>
+    <t>[1.0, 0.09029284407118399, 0.003090160991593748, -0.01458868333275319, -0.013131832749729094, -0.013045224533461158, 0.00013197782382329455, 0.0018329649223643868, 0.0029397216042974334, 0.008145383099990983, -0.006604173561337797, -0.0014437052135839385, -0.0031953689725195025, 0.025676938455368777, 0.028010908412673285, 0.014193155799411782, 0.000842049264462496, -0.004714149521669019, 0.009819455021543506, -0.015215927179139159]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999999, -0.09021303804169639, -0.05069690986088107, -0.07357237745612387, -0.11834949268713568, 0.28775386407957737, -0.04668057576844395, 0.05852392703767862, 0.0036647847892249106, -0.023474008545813524, -0.038940786472992366, -0.03772287650368242, 0.016993802621373847, 0.021073064777259242, 0.06962543253462977, 0.012218773106454854, -0.003873741031019354, -0.010859006176298293, -0.028785102078740535, 0.004470907994055973]</t>
+    <t>[1.0, 0.027629632874653715, -0.030925524881919863, -0.1275375991688263, -0.14662833613375903, 0.08505365402715732, 0.0034969294511322984, 0.08532621533588629, 0.036943154463400636, -0.022910206460886057, -0.07214021264858068, -0.051896719295105045, 0.0016369591632326031, 0.036226090508683896, 0.08224966455505008, 0.02504311210321133, -0.014994620056548232, -0.06652901305197097, -0.06988438051247067, 0.0004693468076000554]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.04537073463150119, -0.014809631493741164, -0.039996503971106684, -0.08729354845500342, 0.30487741041294214, -0.02139768261892874, 0.07460534623267191, 0.022457070909931, -0.013671819562525198, -0.027103267391320216, -0.027760763788982637, 0.026844212946170516, 0.03078091553296756, 0.06966426059382526, 0.019116851364118073, 0.0009243541293403281, -0.004575229639319514, -0.022159726163030472, 0.009127335732338376]</t>
-  </si>
-  <si>
-    <t>[1.0, -0.0676488815431104, -0.031416736919497305, -0.047700995538358874, -0.06530600588951523, 0.1998446210289016, -0.03509617009270588, 0.03344754199212242, -0.005953713292294641, -0.021100965572721096, -0.02579211762132092, -0.018559131795802725, 0.009000413341306314, 0.003330477239898005, 0.055756450823325344, 0.016599528182636426, -0.006120883524487295, 0.006796309748721854, -0.002617752846073729, 0.0024843077130455374]</t>
+    <t>[1.0, -0.009140478439983042, -0.02638775392404581, -0.11844625024583522, -0.1450048596864767, 0.0939294527168299, 0.0007800027806599276, 0.08472041308542935, 0.037082593102983896, -0.02047629876139071, -0.06819600789608209, -0.047934913228888036, 0.0006323112185287519, 0.039943183840940304, 0.08580120702501767, 0.026619967649498807, -0.00948877996003385, -0.06391050196589737, -0.06542553312455232, 0.0072674302848237315]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.012426916358293173, -0.039465188275681164, -0.11129039118049046, -0.12671586497594622, 0.06322222380553758, 0.007403567800449045, 0.06990618871533896, 0.03119693010874365, -0.010738379210647641, -0.06749166412294484, -0.04309687849464792, 0.0008267335248117876, 0.026313439589745344, 0.06988128392222186, 0.03405145663264218, -0.005893336838458587, -0.056225570131385544, -0.05300252652696254, 0.002034935012816862]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.2956794893893E-05</v>
+        <v>-0.00499731415748183</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7929965008397935</v>
+        <v>0.7711701032894739</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001978262929895643</v>
+        <v>0.1035095332260964</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.01163059438434978</v>
+        <v>-0.1854976339519105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7517595727673099</v>
+        <v>0.5547653944959511</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001207455341984045</v>
+        <v>0.06213472818997952</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01256828842261183</v>
+        <v>0.1724218551567645</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7462214371342081</v>
+        <v>0.5685865772672786</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.001444694635368234</v>
+        <v>0.05971121150875135</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0003351416656164028</v>
+        <v>7.078375205828765E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>4.413315177652508E-05</v>
+        <v>0.0001887705531063615</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1999999745631566</v>
+        <v>0.003958963368569435</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7800000285684567</v>
+        <v>0.9943866867833515</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0003438700948161704</v>
+        <v>-0.0007433445166432991</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>4.413636892290445E-05</v>
+        <v>0.1113250269049656</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1000000889766707</v>
+        <v>0.03984717846706533</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8549999255094036</v>
+        <v>2.823159889204217E-13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.04999986672740196</v>
+        <v>0.01199870732960074</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0003176544666566077</v>
+        <v>-0.005587142484813909</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.956687539925694E-05</v>
+        <v>0.09947967699301188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.199983684524659</v>
+        <v>0.04214799570264793</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7750186527439975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.009999222019920005</v>
+        <v>-0.008482083457821876</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7604946193121846</v>
+        <v>0.7704589490061118</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.01745004963620039, -0.03612935201912364, -0.10800904609037722, -0.10797337574807822, 0.07075564253094463, 0.015039434535939044, 0.056816436702190776, 0.026291466073285454, -0.005017883274518083, -0.05752891558348289, -0.04952335382641815, -0.004755619698045955, 0.03713232674969683, 0.07089008932313517, 0.03595401544320757, -0.013375515988875887, -0.05264177019723043, -0.035109390407550664, -0.003783650821500156]</t>
+    <t>[1.0, 0.3428654924548603, 0.334339821203891, 0.3107505615876993, 0.301019256423924, 0.4983087885708196, 0.32541569437551643, 0.330259293569174, 0.31308677919220035, 0.2914262482884507, 0.28683857327868606, 0.27634481670143557, 0.28952962931217024, 0.3062349194322275, 0.32067672151483423, 0.2949252840086501, 0.2714451057352363, 0.285960540053174, 0.2817363883217259, 0.27848678560222834]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.08318585840765379, 0.011239142765202133, -0.008320499427161478, -0.015236347469236272, -0.00800950596985798, -0.0014864436417727895, -0.0019246380983741012, 0.0012169662150501928, 0.008957425059004275, -0.0094367883449098, -0.010784266186328259, -0.008585219674262397, 0.026925075514636403, 0.031094589154441278, 0.00987831780720343, 0.0043296795310106785, 0.0011441013412257378, 0.00827192138503105, -0.0026723282907600747]</t>
+    <t>[1.0, 0.36379040018019687, 0.3369116524599222, 0.33423415324670563, 0.30221423163808236, 0.37065897584399504, 0.31187706628447076, 0.3076954202528062, 0.29278294306587144, 0.2686672025436916, 0.2943322687329038, 0.26124095902847033, 0.2628770400642022, 0.25636746519986403, 0.28275826869499066, 0.30686152475512857, 0.2605032607586898, 0.2626711409502044, 0.27283393942022244, 0.2561667741484799]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.02415610029492089, -0.023446095630948453, -0.11791061748579447, -0.12318574938364033, 0.09503666595643444, 0.009663682223541262, 0.07148053961363053, 0.03399887592777847, -0.012878004129307282, -0.06420434503217118, -0.053166580963446605, -0.005881072519378514, 0.0386845005021295, 0.06821074787524627, 0.027495836264312807, -0.013534638637887007, -0.05432749250034031, -0.059414730700812324, -0.0023505800254018743]</t>
+    <t>[1.0, -0.08168296419615892, -0.049041386496671086, -0.09597174397217319, -0.09298087705772949, 0.29885021646636845, -0.031686367013017344, 0.06344537085548103, -0.0022526950692061285, -0.010440818243234888, -0.028540968437931837, -0.025864123779673356, 0.003661736680930923, 0.03432216793854821, 0.07399842013413903, 0.023886402257475306, 0.004687550904959184, -0.00912806927556006, -0.01724756621995928, 0.017067800127909736]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.025282335865977078, -0.022889058113546322, -0.11719685846239851, -0.12302482615523228, 0.09502144164127879, 0.010020024650915156, 0.0717893031087762, 0.03416914095660153, -0.012704866744926813, -0.06432497395643638, -0.05295740590430248, -0.005494493390150082, 0.03919246541899185, 0.06854268467931247, 0.027642098575668513, -0.013210784818336381, -0.05428554126804404, -0.05887860193141547, -0.0020984610745321255]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, -0.014780791163826896, -0.035282083498608154, -0.10703936121035044, -0.10906734653207778, 0.07530628185785349, 0.012233719444555043, 0.05734288679110873, 0.02619036293307894, -0.0039843168988951926, -0.05589657969232124, -0.049138365728663806, -0.004744554823630349, 0.035322983892120886, 0.06898669837124984, 0.035437621297818196, -0.012905383880836637, -0.05315159848956458, -0.03552259294203481, -0.003884553521987138]</t>
+    <t>[1.0, -0.04802030782139957, -0.023900929377378574, -0.0743374040175018, -0.0705543274961626, 0.3097107309070136, -0.017452237246948558, 0.0733423485753081, 0.008217110779852573, -0.004166913578727237, -0.020504306001846613, -0.02155455602500132, 0.00952647179665617, 0.03935998615046954, 0.07636647426316716, 0.030319645173745163, 0.006183373235456205, -0.004567785579492703, -0.012508178077142149, 0.02353353719599398]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.06478753956565701, -0.024912513191969073, -0.06269228363032286, -0.04605218636580197, 0.21817205258916988, -0.02478730161821368, 0.039702398133601734, -0.005871947513234957, -0.0013599584585808253, -0.013409119946626113, -0.015087497781139369, 0.0009088577674852645, 0.020455933716936336, 0.06602904454261269, 0.025897981234409805, 0.0020496803740213737, 0.005066724737274858, 0.011462502315722928, 0.01699976373146314]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.005225599985373976</v>
+        <v>-0.0001993655275788096</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7695920600297942</v>
+        <v>0.7932514652920688</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1045188529164223</v>
+        <v>0.001501574309577561</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.185925962602649</v>
+        <v>-0.009526733307493023</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5564955990351369</v>
+        <v>0.7653730596278702</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.06247207434201728</v>
+        <v>0.0009540231914201716</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1735653519321094</v>
+        <v>0.009929380664100141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5624762523162383</v>
+        <v>0.758539439045549</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06117624875469052</v>
+        <v>0.001034520974348429</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-7.723896426074221E-05</v>
+        <v>0.0003275724123776003</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>6.616410974713641E-05</v>
+        <v>3.349873430469541E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.002227856205662561</v>
+        <v>0.1999997027857356</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9971832952432749</v>
+        <v>0.7800007457931163</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006435756330447259</v>
+        <v>-0.0005209117223476958</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.908038175188774E-05</v>
+        <v>3.349715710288374E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2.515109520118847E-26</v>
+        <v>0.1000000684366096</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9981828766623594</v>
+        <v>0.8299999368862377</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0031084928113516</v>
+        <v>0.09999991635525493</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.005695820856432924</v>
+        <v>-7.872550446405591E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1010958380548914</v>
+        <v>3.018114400777296E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.04416587965257573</v>
+        <v>0.2000153345572102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.7750091334972046</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.02473946816341578</v>
+        <v>0.0100022938631411</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7687204075983883</v>
+        <v>0.7713498724234</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nat-gas-reuter-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.3428654924548603, 0.334339821203891, 0.3107505615876993, 0.301019256423924, 0.4983087885708196, 0.32541569437551643, 0.330259293569174, 0.31308677919220035, 0.2914262482884507, 0.28683857327868606, 0.27634481670143557, 0.28952962931217024, 0.3062349194322275, 0.32067672151483423, 0.2949252840086501, 0.2714451057352363, 0.285960540053174, 0.2817363883217259, 0.27848678560222834]</t>
+    <t>[1.0, 0.34286549245485987, 0.3343398212038908, 0.3107505615876991, 0.3010192564239238, 0.49830878857081995, 0.32541569437551604, 0.33025929356917394, 0.31308677919220046, 0.29142624828845065, 0.28683857327868606, 0.27634481670143535, 0.28952962931217024, 0.3062349194322271, 0.32067672151483395, 0.29492528400865003, 0.27144510573523606, 0.2859605400531738, 0.28173638832172554, 0.27848678560222834]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.36379040018019687, 0.3369116524599222, 0.33423415324670563, 0.30221423163808236, 0.37065897584399504, 0.31187706628447076, 0.3076954202528062, 0.29278294306587144, 0.2686672025436916, 0.2943322687329038, 0.26124095902847033, 0.2628770400642022, 0.25636746519986403, 0.28275826869499066, 0.30686152475512857, 0.2605032607586898, 0.2626711409502044, 0.27283393942022244, 0.2561667741484799]</t>
+    <t>[1.0, 0.36379040018019626, 0.336911652459922, 0.33423415324670525, 0.30221423163808203, 0.37065897584399465, 0.31187706628447043, 0.30769542025280633, 0.29278294306587144, 0.2686672025436913, 0.29433226873290375, 0.2612409590284699, 0.26287704006420204, 0.2563674651998638, 0.2827582686949906, 0.3068615247551286, 0.2605032607586897, 0.2626711409502042, 0.27283393942022205, 0.25616677414847966]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.08168296419615892, -0.049041386496671086, -0.09597174397217319, -0.09298087705772949, 0.29885021646636845, -0.031686367013017344, 0.06344537085548103, -0.0022526950692061285, -0.010440818243234888, -0.028540968437931837, -0.025864123779673356, 0.003661736680930923, 0.03432216793854821, 0.07399842013413903, 0.023886402257475306, 0.004687550904959184, -0.00912806927556006, -0.01724756621995928, 0.017067800127909736]</t>
+    <t>[0.9999999999999999, -0.08168296419615896, -0.049041386496671106, -0.0959717439721732, -0.09298087705772955, 0.2988502164663685, -0.03168636701301736, 0.06344537085548106, -0.0022526950692061238, -0.010440818243234888, -0.028540968437931854, -0.025864123779673374, 0.003661736680930916, 0.03432216793854822, 0.07399842013413906, 0.023886402257475306, 0.004687550904959183, -0.009128069275560056, -0.01724756621995929, 0.017067800127909746]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.04802030782139957, -0.023900929377378574, -0.0743374040175018, -0.0705543274961626, 0.3097107309070136, -0.017452237246948558, 0.0733423485753081, 0.008217110779852573, -0.004166913578727237, -0.020504306001846613, -0.02155455602500132, 0.00952647179665617, 0.03935998615046954, 0.07636647426316716, 0.030319645173745163, 0.006183373235456205, -0.004567785579492703, -0.012508178077142149, 0.02353353719599398]</t>
-  </si>
-  <si>
-    <t>[1.0, -0.06478753956565701, -0.024912513191969073, -0.06269228363032286, -0.04605218636580197, 0.21817205258916988, -0.02478730161821368, 0.039702398133601734, -0.005871947513234957, -0.0013599584585808253, -0.013409119946626113, -0.015087497781139369, 0.0009088577674852645, 0.020455933716936336, 0.06602904454261269, 0.025897981234409805, 0.0020496803740213737, 0.005066724737274858, 0.011462502315722928, 0.01699976373146314]</t>
+    <t>[1.0, -0.048020307821399565, -0.02390092937737858, -0.07433740401750179, -0.07055432749616256, 0.30971073090701357, -0.017452237246948565, 0.07334234857530808, 0.008217110779852573, -0.004166913578727226, -0.020504306001846634, -0.021554556025001295, 0.009526471796656182, 0.03935998615046952, 0.07636647426316713, 0.030319645173745146, 0.006183373235456208, -0.004567785579492714, -0.012508178077142156, 0.02353353719599397]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.06720670930964212, -0.027391222310129356, -0.06599754962114109, -0.04990003990468124, 0.22705061841862373, -0.025666981241612832, 0.04204405833730342, -0.00581102800637633, -0.0013490141432925483, -0.014121022732126119, -0.015868524807964985, 0.001586793532198829, 0.020878155876704295, 0.06651328811086521, 0.02640128444804395, 0.0022179913384314832, 0.00378508069577109, 0.009789579415107401, 0.016745167767873704]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001993655275788096</v>
+        <v>-0.0001993655275788099</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7932514652920688</v>
+        <v>0.7932514652920696</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1.055139550714772</v>
+        <v>0.5134150380920834</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.009526733307493023</v>
+        <v>-0.009526733307493058</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7653730596278702</v>
+        <v>0.7653730596278699</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0009540231914201716</v>
+        <v>0.0009540231914201715</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009929380664100141</v>
+        <v>0.009929380664100153</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.758539439045549</v>
+        <v>0.7585394390455501</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0003275724123776003</v>
+        <v>0.0003275724123776004</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0005209117223476958</v>
+        <v>-0.0005209117223476956</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-7.872550446405591E-05</v>
+        <v>-0.0001248099511764412</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.018114400777296E-05</v>
+        <v>3.018990542229067E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.2000153345572102</v>
+        <v>0.199997797053487</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.7750091334972046</v>
+        <v>0.7749912800000642</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0100022938631411</v>
+        <v>0.009993651834203025</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7713498724234</v>
+        <v>0.7858205139295537</v>
       </c>
     </row>
   </sheetData>
